--- a/CD-valid/Input/EU2 GPP 2023 Codebook.xlsx
+++ b/CD-valid/Input/EU2 GPP 2023 Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/GPP/0. Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/eu-data-validation/CD-valid/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1689" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401625A5-DFE7-4E88-830F-DDD9AEC41C0E}"/>
+  <xr:revisionPtr revIDLastSave="1946" documentId="8_{65496F24-8EF0-4EA9-80D0-E64665E9412B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECCDE78-CDE6-484A-BF4D-C36921BD20A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codebook" sheetId="18" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="2168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="2169">
   <si>
     <t>Variable</t>
   </si>
@@ -9076,6 +9076,9 @@
   </si>
   <si>
     <t>q60_G3_98</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -9145,11 +9148,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9204,7 +9209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9271,6 +9276,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9610,28 +9618,29 @@
   <dimension ref="A1:K451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C390" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G400" sqref="G400"/>
+      <selection pane="bottomRight" activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="18.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="38.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9662,8 +9671,11 @@
       <c r="J1" s="8" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="8" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1609</v>
       </c>
@@ -9695,7 +9707,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1613</v>
       </c>
@@ -9724,7 +9736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>1615</v>
       </c>
@@ -9756,7 +9768,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>1616</v>
       </c>
@@ -9788,7 +9800,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>1620</v>
       </c>
@@ -9820,7 +9832,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>1624</v>
       </c>
@@ -9852,7 +9864,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>1627</v>
       </c>
@@ -9884,7 +9896,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -9913,7 +9925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>1622</v>
       </c>
@@ -9945,7 +9957,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>1629</v>
       </c>
@@ -9977,7 +9989,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -10006,7 +10018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -10035,7 +10047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -10064,7 +10076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -10093,7 +10105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10125,7 +10137,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -10154,7 +10166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -10183,7 +10195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -10211,8 +10223,11 @@
       <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -10240,8 +10255,11 @@
       <c r="I20" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -10269,8 +10287,11 @@
       <c r="I21" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -10298,8 +10319,11 @@
       <c r="I22" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -10327,8 +10351,11 @@
       <c r="I23" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -10356,8 +10383,11 @@
       <c r="I24" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -10385,8 +10415,11 @@
       <c r="I25" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -10414,8 +10447,11 @@
       <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -10443,8 +10479,11 @@
       <c r="I27" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -10472,8 +10511,11 @@
       <c r="I28" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -10501,8 +10543,11 @@
       <c r="I29" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -10530,8 +10575,11 @@
       <c r="I30" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>84</v>
       </c>
@@ -10559,8 +10607,11 @@
       <c r="I31" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
@@ -10588,8 +10639,11 @@
       <c r="I32" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -10617,8 +10671,11 @@
       <c r="I33" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -10646,8 +10703,11 @@
       <c r="I34" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
@@ -10675,8 +10735,11 @@
       <c r="I35" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
@@ -10704,8 +10767,11 @@
       <c r="I36" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -10733,8 +10799,11 @@
       <c r="I37" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>107</v>
       </c>
@@ -10762,8 +10831,11 @@
       <c r="I38" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
@@ -10791,8 +10863,11 @@
       <c r="I39" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>113</v>
       </c>
@@ -10820,8 +10895,11 @@
       <c r="I40" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -10849,8 +10927,11 @@
       <c r="I41" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>119</v>
       </c>
@@ -10878,8 +10959,11 @@
       <c r="I42" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
@@ -10907,8 +10991,11 @@
       <c r="I43" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>125</v>
       </c>
@@ -10936,8 +11023,11 @@
       <c r="I44" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>128</v>
       </c>
@@ -10965,8 +11055,11 @@
       <c r="I45" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
@@ -10994,8 +11087,11 @@
       <c r="I46" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -11023,8 +11119,11 @@
       <c r="I47" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>138</v>
       </c>
@@ -11052,8 +11151,11 @@
       <c r="I48" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -11081,8 +11183,11 @@
       <c r="I49" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>142</v>
       </c>
@@ -11110,8 +11215,11 @@
       <c r="I50" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>144</v>
       </c>
@@ -11139,8 +11247,11 @@
       <c r="I51" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>146</v>
       </c>
@@ -11168,8 +11279,11 @@
       <c r="I52" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>148</v>
       </c>
@@ -11197,8 +11311,11 @@
       <c r="I53" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>152</v>
       </c>
@@ -11226,8 +11343,11 @@
       <c r="I54" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>157</v>
       </c>
@@ -11255,8 +11375,11 @@
       <c r="I55" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>161</v>
       </c>
@@ -11284,8 +11407,11 @@
       <c r="I56" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
@@ -11313,8 +11439,11 @@
       <c r="I57" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>169</v>
       </c>
@@ -11342,8 +11471,11 @@
       <c r="I58" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
@@ -11371,8 +11503,11 @@
       <c r="I59" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -11400,8 +11535,11 @@
       <c r="I60" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>180</v>
       </c>
@@ -11429,8 +11567,11 @@
       <c r="I61" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -11458,8 +11599,11 @@
       <c r="I62" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>186</v>
       </c>
@@ -11487,8 +11631,11 @@
       <c r="I63" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -11516,8 +11663,11 @@
       <c r="I64" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>193</v>
       </c>
@@ -11545,8 +11695,11 @@
       <c r="I65" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
@@ -11574,8 +11727,11 @@
       <c r="I66" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
@@ -11603,8 +11759,11 @@
       <c r="I67" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>199</v>
       </c>
@@ -11632,8 +11791,11 @@
       <c r="I68" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
@@ -11661,8 +11823,11 @@
       <c r="I69" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>206</v>
       </c>
@@ -11690,8 +11855,11 @@
       <c r="I70" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>1331</v>
       </c>
@@ -11719,8 +11887,11 @@
       <c r="I71" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>211</v>
       </c>
@@ -11748,8 +11919,11 @@
       <c r="I72" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>216</v>
       </c>
@@ -11777,8 +11951,11 @@
       <c r="I73" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>219</v>
       </c>
@@ -11806,8 +11983,11 @@
       <c r="I74" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>222</v>
       </c>
@@ -11835,8 +12015,11 @@
       <c r="I75" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>224</v>
       </c>
@@ -11864,8 +12047,11 @@
       <c r="I76" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>226</v>
       </c>
@@ -11893,8 +12079,11 @@
       <c r="I77" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -11922,8 +12111,11 @@
       <c r="I78" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>1330</v>
       </c>
@@ -11951,8 +12143,11 @@
       <c r="I79" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
@@ -11980,8 +12175,11 @@
       <c r="I80" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>233</v>
       </c>
@@ -12010,7 +12208,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>973</v>
       </c>
@@ -12038,8 +12236,11 @@
       <c r="I82" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>974</v>
       </c>
@@ -12067,8 +12268,11 @@
       <c r="I83" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>975</v>
       </c>
@@ -12096,8 +12300,11 @@
       <c r="I84" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>976</v>
       </c>
@@ -12125,8 +12332,11 @@
       <c r="I85" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>1631</v>
       </c>
@@ -12154,8 +12364,11 @@
       <c r="I86" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>978</v>
       </c>
@@ -12183,8 +12396,11 @@
       <c r="I87" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>979</v>
       </c>
@@ -12212,8 +12428,11 @@
       <c r="I88" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>980</v>
       </c>
@@ -12241,8 +12460,11 @@
       <c r="I89" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>981</v>
       </c>
@@ -12270,8 +12492,11 @@
       <c r="I90" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>982</v>
       </c>
@@ -12299,8 +12524,11 @@
       <c r="I91" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>986</v>
       </c>
@@ -12328,8 +12556,11 @@
       <c r="I92" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>1318</v>
       </c>
@@ -12357,8 +12588,11 @@
       <c r="I93" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>1319</v>
       </c>
@@ -12386,8 +12620,11 @@
       <c r="I94" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
         <v>1320</v>
       </c>
@@ -12415,8 +12652,11 @@
       <c r="I95" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>1321</v>
       </c>
@@ -12444,8 +12684,11 @@
       <c r="I96" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>1322</v>
       </c>
@@ -12473,8 +12716,11 @@
       <c r="I97" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>1323</v>
       </c>
@@ -12502,8 +12748,11 @@
       <c r="I98" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>1324</v>
       </c>
@@ -12531,8 +12780,11 @@
       <c r="I99" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>1325</v>
       </c>
@@ -12560,8 +12812,11 @@
       <c r="I100" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>1326</v>
       </c>
@@ -12589,8 +12844,11 @@
       <c r="I101" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>1327</v>
       </c>
@@ -12618,8 +12876,11 @@
       <c r="I102" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>1328</v>
       </c>
@@ -12647,8 +12908,11 @@
       <c r="I103" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>1329</v>
       </c>
@@ -12676,8 +12940,11 @@
       <c r="I104" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>1316</v>
       </c>
@@ -12705,8 +12972,11 @@
       <c r="I105" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>1317</v>
       </c>
@@ -12734,8 +13004,11 @@
       <c r="I106" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>1096</v>
       </c>
@@ -12763,8 +13036,11 @@
       <c r="I107" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12792,8 +13068,11 @@
       <c r="I108" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>1098</v>
       </c>
@@ -12821,8 +13100,11 @@
       <c r="I109" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>1099</v>
       </c>
@@ -12850,8 +13132,11 @@
       <c r="I110" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>1100</v>
       </c>
@@ -12879,8 +13164,11 @@
       <c r="I111" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>1101</v>
       </c>
@@ -12908,8 +13196,11 @@
       <c r="I112" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>1102</v>
       </c>
@@ -12937,8 +13228,11 @@
       <c r="I113" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>1103</v>
       </c>
@@ -12966,8 +13260,11 @@
       <c r="I114" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>1104</v>
       </c>
@@ -12995,8 +13292,11 @@
       <c r="I115" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>1105</v>
       </c>
@@ -13024,8 +13324,11 @@
       <c r="I116" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
         <v>1106</v>
       </c>
@@ -13053,8 +13356,11 @@
       <c r="I117" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>1107</v>
       </c>
@@ -13082,8 +13388,11 @@
       <c r="I118" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>1108</v>
       </c>
@@ -13111,8 +13420,11 @@
       <c r="I119" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>1109</v>
       </c>
@@ -13140,8 +13452,11 @@
       <c r="I120" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>1110</v>
       </c>
@@ -13169,8 +13484,11 @@
       <c r="I121" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
         <v>1111</v>
       </c>
@@ -13198,8 +13516,11 @@
       <c r="I122" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>1112</v>
       </c>
@@ -13227,8 +13548,11 @@
       <c r="I123" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>1113</v>
       </c>
@@ -13256,8 +13580,11 @@
       <c r="I124" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>1114</v>
       </c>
@@ -13285,8 +13612,11 @@
       <c r="I125" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13314,8 +13644,11 @@
       <c r="I126" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
         <v>1116</v>
       </c>
@@ -13343,8 +13676,11 @@
       <c r="I127" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>1117</v>
       </c>
@@ -13372,8 +13708,11 @@
       <c r="I128" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>1118</v>
       </c>
@@ -13401,8 +13740,11 @@
       <c r="I129" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>1119</v>
       </c>
@@ -13430,8 +13772,11 @@
       <c r="I130" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>1120</v>
       </c>
@@ -13459,8 +13804,11 @@
       <c r="I131" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>1121</v>
       </c>
@@ -13488,8 +13836,11 @@
       <c r="I132" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
         <v>1122</v>
       </c>
@@ -13517,8 +13868,11 @@
       <c r="I133" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>1123</v>
       </c>
@@ -13546,8 +13900,11 @@
       <c r="I134" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>1124</v>
       </c>
@@ -13575,8 +13932,11 @@
       <c r="I135" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>1125</v>
       </c>
@@ -13604,8 +13964,11 @@
       <c r="I136" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>1126</v>
       </c>
@@ -13633,8 +13996,11 @@
       <c r="I137" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>1127</v>
       </c>
@@ -13662,8 +14028,11 @@
       <c r="I138" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>1128</v>
       </c>
@@ -13691,8 +14060,11 @@
       <c r="I139" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>1129</v>
       </c>
@@ -13720,8 +14092,11 @@
       <c r="I140" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>1130</v>
       </c>
@@ -13749,8 +14124,11 @@
       <c r="I141" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
         <v>1131</v>
       </c>
@@ -13778,8 +14156,11 @@
       <c r="I142" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>1132</v>
       </c>
@@ -13807,8 +14188,11 @@
       <c r="I143" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>1133</v>
       </c>
@@ -13836,8 +14220,11 @@
       <c r="I144" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>1134</v>
       </c>
@@ -13865,8 +14252,11 @@
       <c r="I145" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>1135</v>
       </c>
@@ -13894,8 +14284,11 @@
       <c r="I146" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>1136</v>
       </c>
@@ -13923,8 +14316,11 @@
       <c r="I147" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>1137</v>
       </c>
@@ -13952,8 +14348,11 @@
       <c r="I148" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>1138</v>
       </c>
@@ -13981,8 +14380,11 @@
       <c r="I149" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
         <v>1139</v>
       </c>
@@ -14010,8 +14412,11 @@
       <c r="I150" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
         <v>1140</v>
       </c>
@@ -14039,8 +14444,11 @@
       <c r="I151" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>1141</v>
       </c>
@@ -14068,8 +14476,11 @@
       <c r="I152" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>1142</v>
       </c>
@@ -14097,8 +14508,11 @@
       <c r="I153" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>1143</v>
       </c>
@@ -14126,8 +14540,11 @@
       <c r="I154" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>1144</v>
       </c>
@@ -14155,8 +14572,11 @@
       <c r="I155" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14184,8 +14604,11 @@
       <c r="I156" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>1146</v>
       </c>
@@ -14213,8 +14636,11 @@
       <c r="I157" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>1147</v>
       </c>
@@ -14242,8 +14668,11 @@
       <c r="I158" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>1148</v>
       </c>
@@ -14271,8 +14700,11 @@
       <c r="I159" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>1149</v>
       </c>
@@ -14300,8 +14732,11 @@
       <c r="I160" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>1150</v>
       </c>
@@ -14329,8 +14764,11 @@
       <c r="I161" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>1151</v>
       </c>
@@ -14358,8 +14796,11 @@
       <c r="I162" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>1152</v>
       </c>
@@ -14387,8 +14828,11 @@
       <c r="I163" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>1153</v>
       </c>
@@ -14416,8 +14860,11 @@
       <c r="I164" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>1154</v>
       </c>
@@ -14445,8 +14892,11 @@
       <c r="I165" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
         <v>1155</v>
       </c>
@@ -14474,8 +14924,11 @@
       <c r="I166" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>1156</v>
       </c>
@@ -14503,8 +14956,11 @@
       <c r="I167" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>1157</v>
       </c>
@@ -14532,8 +14988,11 @@
       <c r="I168" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>1158</v>
       </c>
@@ -14561,8 +15020,11 @@
       <c r="I169" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
         <v>1159</v>
       </c>
@@ -14590,8 +15052,11 @@
       <c r="I170" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>1160</v>
       </c>
@@ -14619,8 +15084,11 @@
       <c r="I171" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>1161</v>
       </c>
@@ -14648,8 +15116,11 @@
       <c r="I172" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>1162</v>
       </c>
@@ -14677,8 +15148,11 @@
       <c r="I173" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>1163</v>
       </c>
@@ -14706,8 +15180,11 @@
       <c r="I174" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>1164</v>
       </c>
@@ -14735,8 +15212,11 @@
       <c r="I175" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>1165</v>
       </c>
@@ -14764,8 +15244,11 @@
       <c r="I176" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>1166</v>
       </c>
@@ -14793,8 +15276,11 @@
       <c r="I177" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>1167</v>
       </c>
@@ -14822,8 +15308,11 @@
       <c r="I178" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>1168</v>
       </c>
@@ -14851,8 +15340,11 @@
       <c r="I179" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>1169</v>
       </c>
@@ -14880,8 +15372,11 @@
       <c r="I180" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>1170</v>
       </c>
@@ -14909,8 +15404,11 @@
       <c r="I181" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>1171</v>
       </c>
@@ -14938,8 +15436,11 @@
       <c r="I182" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>1172</v>
       </c>
@@ -14967,8 +15468,11 @@
       <c r="I183" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>1173</v>
       </c>
@@ -14996,8 +15500,11 @@
       <c r="I184" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>1174</v>
       </c>
@@ -15025,8 +15532,11 @@
       <c r="I185" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>1175</v>
       </c>
@@ -15054,8 +15564,11 @@
       <c r="I186" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>1176</v>
       </c>
@@ -15083,8 +15596,11 @@
       <c r="I187" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>1177</v>
       </c>
@@ -15112,8 +15628,11 @@
       <c r="I188" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>1178</v>
       </c>
@@ -15141,8 +15660,11 @@
       <c r="I189" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>1179</v>
       </c>
@@ -15170,8 +15692,11 @@
       <c r="I190" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>1180</v>
       </c>
@@ -15199,8 +15724,11 @@
       <c r="I191" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>1181</v>
       </c>
@@ -15228,8 +15756,11 @@
       <c r="I192" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
         <v>1182</v>
       </c>
@@ -15257,8 +15788,11 @@
       <c r="I193" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>1183</v>
       </c>
@@ -15286,8 +15820,11 @@
       <c r="I194" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>1184</v>
       </c>
@@ -15315,8 +15852,11 @@
       <c r="I195" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
         <v>1185</v>
       </c>
@@ -15344,8 +15884,11 @@
       <c r="I196" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>1186</v>
       </c>
@@ -15373,8 +15916,11 @@
       <c r="I197" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
         <v>1187</v>
       </c>
@@ -15402,8 +15948,11 @@
       <c r="I198" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>1188</v>
       </c>
@@ -15431,8 +15980,11 @@
       <c r="I199" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="K199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="210" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>1189</v>
       </c>
@@ -15460,8 +16012,11 @@
       <c r="I200" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>1190</v>
       </c>
@@ -15489,8 +16044,11 @@
       <c r="I201" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>1191</v>
       </c>
@@ -15518,8 +16076,11 @@
       <c r="I202" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>1192</v>
       </c>
@@ -15547,8 +16108,11 @@
       <c r="I203" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="K203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="196" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>1314</v>
       </c>
@@ -15576,8 +16140,11 @@
       <c r="I204" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>1193</v>
       </c>
@@ -15605,8 +16172,11 @@
       <c r="I205" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>1194</v>
       </c>
@@ -15634,8 +16204,11 @@
       <c r="I206" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>1195</v>
       </c>
@@ -15663,8 +16236,11 @@
       <c r="I207" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>1196</v>
       </c>
@@ -15692,8 +16268,11 @@
       <c r="I208" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>1197</v>
       </c>
@@ -15721,8 +16300,11 @@
       <c r="I209" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>1198</v>
       </c>
@@ -15750,8 +16332,11 @@
       <c r="I210" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>1199</v>
       </c>
@@ -15779,8 +16364,11 @@
       <c r="I211" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>1200</v>
       </c>
@@ -15808,8 +16396,11 @@
       <c r="I212" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>1201</v>
       </c>
@@ -15837,8 +16428,11 @@
       <c r="I213" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>1202</v>
       </c>
@@ -15866,8 +16460,11 @@
       <c r="I214" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>1203</v>
       </c>
@@ -15895,8 +16492,11 @@
       <c r="I215" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15924,8 +16524,11 @@
       <c r="I216" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>1205</v>
       </c>
@@ -15953,8 +16556,11 @@
       <c r="I217" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>1206</v>
       </c>
@@ -15982,8 +16588,11 @@
       <c r="I218" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>1632</v>
       </c>
@@ -16011,8 +16620,11 @@
       <c r="I219" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="K219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="238" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>1315</v>
       </c>
@@ -16040,8 +16652,11 @@
       <c r="I220" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>1207</v>
       </c>
@@ -16069,8 +16684,11 @@
       <c r="I221" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K221" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>1208</v>
       </c>
@@ -16098,8 +16716,11 @@
       <c r="I222" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>1209</v>
       </c>
@@ -16127,8 +16748,11 @@
       <c r="I223" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>1210</v>
       </c>
@@ -16156,8 +16780,11 @@
       <c r="I224" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>1211</v>
       </c>
@@ -16185,8 +16812,11 @@
       <c r="I225" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>1212</v>
       </c>
@@ -16214,8 +16844,11 @@
       <c r="I226" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16243,8 +16876,11 @@
       <c r="I227" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>1214</v>
       </c>
@@ -16272,8 +16908,11 @@
       <c r="I228" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
         <v>1215</v>
       </c>
@@ -16301,8 +16940,11 @@
       <c r="I229" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>1217</v>
       </c>
@@ -16330,8 +16972,11 @@
       <c r="I230" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>1218</v>
       </c>
@@ -16359,8 +17004,11 @@
       <c r="I231" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>1219</v>
       </c>
@@ -16388,8 +17036,11 @@
       <c r="I232" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>1220</v>
       </c>
@@ -16417,8 +17068,11 @@
       <c r="I233" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>1221</v>
       </c>
@@ -16446,8 +17100,11 @@
       <c r="I234" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>1222</v>
       </c>
@@ -16475,8 +17132,11 @@
       <c r="I235" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>1223</v>
       </c>
@@ -16504,8 +17164,11 @@
       <c r="I236" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>1647</v>
       </c>
@@ -16533,8 +17196,11 @@
       <c r="I237" s="2" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>1224</v>
       </c>
@@ -16562,8 +17228,11 @@
       <c r="I238" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>1225</v>
       </c>
@@ -16591,8 +17260,11 @@
       <c r="I239" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>1227</v>
       </c>
@@ -16620,8 +17292,11 @@
       <c r="I240" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>1228</v>
       </c>
@@ -16649,8 +17324,11 @@
       <c r="I241" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>1229</v>
       </c>
@@ -16678,8 +17356,11 @@
       <c r="I242" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>1230</v>
       </c>
@@ -16707,8 +17388,11 @@
       <c r="I243" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>1231</v>
       </c>
@@ -16736,8 +17420,11 @@
       <c r="I244" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>1232</v>
       </c>
@@ -16765,8 +17452,11 @@
       <c r="I245" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>1234</v>
       </c>
@@ -16794,8 +17484,11 @@
       <c r="I246" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>1233</v>
       </c>
@@ -16823,8 +17516,11 @@
       <c r="I247" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>1240</v>
       </c>
@@ -16852,8 +17548,11 @@
       <c r="I248" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>1236</v>
       </c>
@@ -16881,8 +17580,11 @@
       <c r="I249" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>1237</v>
       </c>
@@ -16910,8 +17612,11 @@
       <c r="I250" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>1238</v>
       </c>
@@ -16939,8 +17644,11 @@
       <c r="I251" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>1239</v>
       </c>
@@ -16968,8 +17676,11 @@
       <c r="I252" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>1235</v>
       </c>
@@ -16997,8 +17708,11 @@
       <c r="I253" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
         <v>1299</v>
       </c>
@@ -17026,8 +17740,11 @@
       <c r="I254" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
         <v>1298</v>
       </c>
@@ -17055,8 +17772,11 @@
       <c r="I255" s="3" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>1300</v>
       </c>
@@ -17084,8 +17804,11 @@
       <c r="I256" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K256" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
         <v>1302</v>
       </c>
@@ -17113,8 +17836,11 @@
       <c r="I257" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K257" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
         <v>1304</v>
       </c>
@@ -17142,8 +17868,11 @@
       <c r="I258" s="3" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K258" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
         <v>1306</v>
       </c>
@@ -17171,8 +17900,11 @@
       <c r="I259" s="3" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K259" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
         <v>1307</v>
       </c>
@@ -17200,8 +17932,11 @@
       <c r="I260" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K260" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
         <v>1309</v>
       </c>
@@ -17229,8 +17964,11 @@
       <c r="I261" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K261" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
         <v>1312</v>
       </c>
@@ -17258,8 +17996,11 @@
       <c r="I262" s="3" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K262" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
         <v>1313</v>
       </c>
@@ -17287,8 +18028,11 @@
       <c r="I263" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K263" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
         <v>1332</v>
       </c>
@@ -17316,8 +18060,11 @@
       <c r="I264" s="3" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K264" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
         <v>1333</v>
       </c>
@@ -17345,8 +18092,11 @@
       <c r="I265" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
         <v>1334</v>
       </c>
@@ -17374,8 +18124,11 @@
       <c r="I266" s="3" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
         <v>1340</v>
       </c>
@@ -17403,8 +18156,11 @@
       <c r="I267" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K267" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
         <v>1341</v>
       </c>
@@ -17432,8 +18188,11 @@
       <c r="I268" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K268" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
         <v>1342</v>
       </c>
@@ -17461,8 +18220,11 @@
       <c r="I269" s="3" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K269" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
         <v>1343</v>
       </c>
@@ -17490,8 +18252,11 @@
       <c r="I270" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K270" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
         <v>1344</v>
       </c>
@@ -17519,8 +18284,11 @@
       <c r="I271" s="3" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
         <v>1345</v>
       </c>
@@ -17548,8 +18316,11 @@
       <c r="I272" s="3" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K272" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>1346</v>
       </c>
@@ -17577,8 +18348,11 @@
       <c r="I273" s="3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K273" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
         <v>1347</v>
       </c>
@@ -17606,8 +18380,11 @@
       <c r="I274" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K274" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
         <v>1348</v>
       </c>
@@ -17635,8 +18412,11 @@
       <c r="I275" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K275" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
         <v>1349</v>
       </c>
@@ -17664,8 +18444,11 @@
       <c r="I276" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K276" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
         <v>1359</v>
       </c>
@@ -17693,8 +18476,11 @@
       <c r="I277" s="3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
         <v>1360</v>
       </c>
@@ -17722,8 +18508,11 @@
       <c r="I278" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K278" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
         <v>1361</v>
       </c>
@@ -17751,8 +18540,11 @@
       <c r="I279" s="3" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
         <v>1362</v>
       </c>
@@ -17783,8 +18575,11 @@
       <c r="J280" s="13" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>1366</v>
       </c>
@@ -17815,8 +18610,11 @@
       <c r="J281" s="13" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>1367</v>
       </c>
@@ -17847,8 +18645,11 @@
       <c r="J282" s="13" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>1373</v>
       </c>
@@ -17879,8 +18680,11 @@
       <c r="J283" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K283" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>1374</v>
       </c>
@@ -17911,8 +18715,11 @@
       <c r="J284" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K284" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>1372</v>
       </c>
@@ -17943,8 +18750,11 @@
       <c r="J285" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K285" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>1371</v>
       </c>
@@ -17976,7 +18786,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>1370</v>
       </c>
@@ -18007,8 +18817,11 @@
       <c r="J287" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K287" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>1368</v>
       </c>
@@ -18039,8 +18852,11 @@
       <c r="J288" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>1369</v>
       </c>
@@ -18071,8 +18887,11 @@
       <c r="J289" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>1375</v>
       </c>
@@ -18103,8 +18922,11 @@
       <c r="J290" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>1376</v>
       </c>
@@ -18135,8 +18957,11 @@
       <c r="J291" s="13" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>1398</v>
       </c>
@@ -18164,8 +18989,11 @@
       <c r="I292" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K292" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>1399</v>
       </c>
@@ -18193,8 +19021,11 @@
       <c r="I293" s="3" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>1400</v>
       </c>
@@ -18222,8 +19053,11 @@
       <c r="I294" s="3" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>1401</v>
       </c>
@@ -18251,8 +19085,11 @@
       <c r="I295" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>1407</v>
       </c>
@@ -18280,8 +19117,11 @@
       <c r="I296" s="3" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K296" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>1402</v>
       </c>
@@ -18309,8 +19149,11 @@
       <c r="I297" s="3" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>1403</v>
       </c>
@@ -18338,8 +19181,11 @@
       <c r="I298" s="3" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>1404</v>
       </c>
@@ -18367,8 +19213,11 @@
       <c r="I299" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>1405</v>
       </c>
@@ -18396,8 +19245,11 @@
       <c r="I300" s="3" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
         <v>1406</v>
       </c>
@@ -18425,8 +19277,11 @@
       <c r="I301" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K301" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>1408</v>
       </c>
@@ -18454,8 +19309,11 @@
       <c r="I302" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>1496</v>
       </c>
@@ -18483,8 +19341,11 @@
       <c r="I303" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>1497</v>
       </c>
@@ -18512,8 +19373,11 @@
       <c r="I304" s="3" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>1498</v>
       </c>
@@ -18541,8 +19405,11 @@
       <c r="I305" s="3" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>1499</v>
       </c>
@@ -18570,8 +19437,11 @@
       <c r="I306" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>1500</v>
       </c>
@@ -18599,8 +19469,11 @@
       <c r="I307" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>1501</v>
       </c>
@@ -18628,8 +19501,11 @@
       <c r="I308" s="3" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
         <v>1502</v>
       </c>
@@ -18657,8 +19533,11 @@
       <c r="I309" s="3" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>1430</v>
       </c>
@@ -18686,8 +19565,11 @@
       <c r="I310" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K310" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>1432</v>
       </c>
@@ -18715,8 +19597,11 @@
       <c r="I311" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K311" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>1434</v>
       </c>
@@ -18744,8 +19629,11 @@
       <c r="I312" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K312" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>1435</v>
       </c>
@@ -18773,8 +19661,11 @@
       <c r="I313" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K313" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>1437</v>
       </c>
@@ -18802,8 +19693,11 @@
       <c r="I314" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K314" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>1438</v>
       </c>
@@ -18831,8 +19725,11 @@
       <c r="I315" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K315" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>1442</v>
       </c>
@@ -18860,8 +19757,11 @@
       <c r="I316" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K316" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>1443</v>
       </c>
@@ -18889,8 +19789,11 @@
       <c r="I317" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K317" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>1447</v>
       </c>
@@ -18918,8 +19821,11 @@
       <c r="I318" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="K318" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>1510</v>
       </c>
@@ -18950,8 +19856,11 @@
       <c r="J319" s="13" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>1462</v>
       </c>
@@ -18982,8 +19891,11 @@
       <c r="J320" s="13" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K320" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>1463</v>
       </c>
@@ -19014,8 +19926,11 @@
       <c r="J321" s="13" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K321" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>1464</v>
       </c>
@@ -19046,8 +19961,11 @@
       <c r="J322" s="13" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K322" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>1465</v>
       </c>
@@ -19078,8 +19996,11 @@
       <c r="J323" s="13" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K323" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>1466</v>
       </c>
@@ -19107,8 +20028,11 @@
       <c r="I324" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K324" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>1467</v>
       </c>
@@ -19136,8 +20060,11 @@
       <c r="I325" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K325" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>1468</v>
       </c>
@@ -19165,8 +20092,11 @@
       <c r="I326" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>1469</v>
       </c>
@@ -19194,8 +20124,11 @@
       <c r="I327" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K327" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>1470</v>
       </c>
@@ -19223,8 +20156,11 @@
       <c r="I328" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K328" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>1474</v>
       </c>
@@ -19252,8 +20188,11 @@
       <c r="I329" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K329" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>1473</v>
       </c>
@@ -19281,8 +20220,11 @@
       <c r="I330" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K330" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>1475</v>
       </c>
@@ -19310,8 +20252,11 @@
       <c r="I331" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K331" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
         <v>1476</v>
       </c>
@@ -19339,8 +20284,11 @@
       <c r="I332" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>1477</v>
       </c>
@@ -19368,8 +20316,11 @@
       <c r="I333" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>1478</v>
       </c>
@@ -19397,8 +20348,11 @@
       <c r="I334" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K334" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>1479</v>
       </c>
@@ -19426,8 +20380,11 @@
       <c r="I335" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>1480</v>
       </c>
@@ -19455,8 +20412,11 @@
       <c r="I336" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K336" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>1489</v>
       </c>
@@ -19484,8 +20444,11 @@
       <c r="I337" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K337" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>1490</v>
       </c>
@@ -19516,8 +20479,11 @@
       <c r="J338" s="13" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>1492</v>
       </c>
@@ -19545,8 +20511,11 @@
       <c r="I339" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K339" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>1495</v>
       </c>
@@ -19574,8 +20543,11 @@
       <c r="I340" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K340" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A341" s="3" t="s">
         <v>1503</v>
       </c>
@@ -19603,8 +20575,11 @@
       <c r="I341" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K341" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
         <v>1504</v>
       </c>
@@ -19632,8 +20607,11 @@
       <c r="I342" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K342" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A343" s="3" t="s">
         <v>1505</v>
       </c>
@@ -19661,8 +20639,11 @@
       <c r="I343" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K343" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A344" s="3" t="s">
         <v>1506</v>
       </c>
@@ -19690,8 +20671,11 @@
       <c r="I344" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K344" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A345" s="3" t="s">
         <v>1507</v>
       </c>
@@ -19719,8 +20703,11 @@
       <c r="I345" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
         <v>1508</v>
       </c>
@@ -19748,8 +20735,11 @@
       <c r="I346" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
         <v>1509</v>
       </c>
@@ -19777,8 +20767,11 @@
       <c r="I347" s="3" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
         <v>1415</v>
       </c>
@@ -19809,8 +20802,11 @@
       <c r="J348" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K348" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A349" s="3" t="s">
         <v>1416</v>
       </c>
@@ -19841,8 +20837,11 @@
       <c r="J349" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A350" s="3" t="s">
         <v>1417</v>
       </c>
@@ -19873,8 +20872,11 @@
       <c r="J350" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K350" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A351" s="3" t="s">
         <v>1418</v>
       </c>
@@ -19905,8 +20907,11 @@
       <c r="J351" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K351" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
         <v>1427</v>
       </c>
@@ -19937,8 +20942,11 @@
       <c r="J352" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K352" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A353" s="3" t="s">
         <v>1428</v>
       </c>
@@ -19969,8 +20977,11 @@
       <c r="J353" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="K353" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A354" s="3" t="s">
         <v>1429</v>
       </c>
@@ -20001,8 +21012,11 @@
       <c r="J354" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K354" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>1527</v>
       </c>
@@ -20030,8 +21044,11 @@
       <c r="I355" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K355" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>1528</v>
       </c>
@@ -20059,8 +21076,11 @@
       <c r="I356" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K356" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>1529</v>
       </c>
@@ -20088,8 +21108,11 @@
       <c r="I357" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K357" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>1530</v>
       </c>
@@ -20117,8 +21140,11 @@
       <c r="I358" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K358" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>1531</v>
       </c>
@@ -20146,8 +21172,11 @@
       <c r="I359" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K359" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>1532</v>
       </c>
@@ -20175,8 +21204,11 @@
       <c r="I360" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K360" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>1533</v>
       </c>
@@ -20204,8 +21236,11 @@
       <c r="I361" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K361" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>1534</v>
       </c>
@@ -20233,8 +21268,11 @@
       <c r="I362" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K362" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>1535</v>
       </c>
@@ -20262,8 +21300,11 @@
       <c r="I363" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="K363" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>1536</v>
       </c>
@@ -20294,8 +21335,11 @@
       <c r="J364" s="13" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="K364" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>1448</v>
       </c>
@@ -20326,8 +21370,11 @@
       <c r="J365" s="13" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K365" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>1549</v>
       </c>
@@ -20355,8 +21402,11 @@
       <c r="I366" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K366" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>1550</v>
       </c>
@@ -20384,8 +21434,11 @@
       <c r="I367" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K367" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>1551</v>
       </c>
@@ -20413,8 +21466,11 @@
       <c r="I368" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K368" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>1552</v>
       </c>
@@ -20442,8 +21498,11 @@
       <c r="I369" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K369" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>1553</v>
       </c>
@@ -20471,8 +21530,11 @@
       <c r="I370" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K370" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>1554</v>
       </c>
@@ -20500,8 +21562,11 @@
       <c r="I371" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K371" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>1555</v>
       </c>
@@ -20529,8 +21594,11 @@
       <c r="I372" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K372" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>1556</v>
       </c>
@@ -20558,8 +21626,11 @@
       <c r="I373" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K373" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>1557</v>
       </c>
@@ -20587,8 +21658,11 @@
       <c r="I374" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="K374" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>1558</v>
       </c>
@@ -20616,8 +21690,11 @@
       <c r="I375" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K375" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>1539</v>
       </c>
@@ -20645,8 +21722,11 @@
       <c r="I376" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K376" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>1540</v>
       </c>
@@ -20674,8 +21754,11 @@
       <c r="I377" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K377" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>1541</v>
       </c>
@@ -20703,8 +21786,11 @@
       <c r="I378" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K378" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>1542</v>
       </c>
@@ -20732,8 +21818,11 @@
       <c r="I379" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K379" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>1543</v>
       </c>
@@ -20761,8 +21850,11 @@
       <c r="I380" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K380" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>1544</v>
       </c>
@@ -20790,8 +21882,11 @@
       <c r="I381" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K381" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>1545</v>
       </c>
@@ -20819,8 +21914,11 @@
       <c r="I382" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K382" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>1546</v>
       </c>
@@ -20848,8 +21946,11 @@
       <c r="I383" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K383" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>1547</v>
       </c>
@@ -20877,8 +21978,11 @@
       <c r="I384" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="K384" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>1548</v>
       </c>
@@ -20906,8 +22010,11 @@
       <c r="I385" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K385" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>1635</v>
       </c>
@@ -20935,8 +22042,11 @@
       <c r="I386" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>1636</v>
       </c>
@@ -20964,8 +22074,11 @@
       <c r="I387" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K387" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>1637</v>
       </c>
@@ -20993,8 +22106,11 @@
       <c r="I388" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K388" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>2144</v>
       </c>
@@ -21022,8 +22138,11 @@
       <c r="I389" s="2" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="K389" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>2145</v>
       </c>
@@ -21051,8 +22170,11 @@
       <c r="I390" s="2" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K390" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>1638</v>
       </c>
@@ -21080,8 +22202,11 @@
       <c r="I391" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K391" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>1639</v>
       </c>
@@ -21109,8 +22234,11 @@
       <c r="I392" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K392" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>1640</v>
       </c>
@@ -21138,8 +22266,11 @@
       <c r="I393" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K393" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>2152</v>
       </c>
@@ -21167,8 +22298,11 @@
       <c r="I394" s="2" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K394" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>2156</v>
       </c>
@@ -21196,8 +22330,11 @@
       <c r="I395" s="2" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K395" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>1641</v>
       </c>
@@ -21225,8 +22362,11 @@
       <c r="I396" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K396" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
         <v>1642</v>
       </c>
@@ -21254,8 +22394,11 @@
       <c r="I397" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K397" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>1643</v>
       </c>
@@ -21283,8 +22426,11 @@
       <c r="I398" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K398" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>2164</v>
       </c>
@@ -21312,8 +22458,11 @@
       <c r="I399" s="2" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K399" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
         <v>2160</v>
       </c>
@@ -21341,8 +22490,11 @@
       <c r="I400" s="2" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K400" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A401" s="3" t="s">
         <v>764</v>
       </c>
@@ -21374,7 +22526,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="3" t="s">
         <v>767</v>
       </c>
@@ -21406,7 +22558,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="3" t="s">
         <v>1653</v>
       </c>
@@ -21438,7 +22590,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A404" s="3" t="s">
         <v>770</v>
       </c>
@@ -21467,7 +22619,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="154" x14ac:dyDescent="0.15">
       <c r="A405" s="3" t="s">
         <v>773</v>
       </c>
@@ -21496,7 +22648,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A406" s="3" t="s">
         <v>776</v>
       </c>
@@ -21525,7 +22677,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="168" x14ac:dyDescent="0.15">
       <c r="A407" s="3" t="s">
         <v>779</v>
       </c>
@@ -21554,7 +22706,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="140" x14ac:dyDescent="0.15">
       <c r="A408" s="3" t="s">
         <v>782</v>
       </c>
@@ -21583,7 +22735,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A409" s="3" t="s">
         <v>785</v>
       </c>
@@ -21612,7 +22764,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="112" x14ac:dyDescent="0.15">
       <c r="A410" s="3" t="s">
         <v>788</v>
       </c>
@@ -21641,7 +22793,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A411" s="3" t="s">
         <v>791</v>
       </c>
@@ -21670,7 +22822,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A412" s="3" t="s">
         <v>793</v>
       </c>
@@ -21699,7 +22851,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A413" s="3" t="s">
         <v>796</v>
       </c>
@@ -21728,7 +22880,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A414" s="2" t="s">
         <v>799</v>
       </c>
@@ -21759,7 +22911,7 @@
       <c r="J414" s="3"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A415" s="3" t="s">
         <v>1597</v>
       </c>
@@ -21790,7 +22942,7 @@
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
     </row>
-    <row r="416" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A416" s="3" t="s">
         <v>1594</v>
       </c>
@@ -21819,7 +22971,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="3" t="s">
         <v>1649</v>
       </c>
@@ -21851,7 +23003,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A418" s="3" t="s">
         <v>807</v>
       </c>
@@ -21880,7 +23032,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A419" s="3" t="s">
         <v>809</v>
       </c>
@@ -21909,7 +23061,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A420" s="3" t="s">
         <v>811</v>
       </c>
@@ -21938,7 +23090,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A421" s="3" t="s">
         <v>814</v>
       </c>
@@ -21967,7 +23119,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A422" s="3" t="s">
         <v>816</v>
       </c>
@@ -21996,7 +23148,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A423" s="3" t="s">
         <v>818</v>
       </c>
@@ -22025,7 +23177,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A424" s="2" t="s">
         <v>820</v>
       </c>
@@ -22054,7 +23206,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A425" s="2" t="s">
         <v>823</v>
       </c>
@@ -22083,7 +23235,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A426" s="3" t="s">
         <v>826</v>
       </c>
@@ -22112,7 +23264,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A427" s="3" t="s">
         <v>828</v>
       </c>
@@ -22141,7 +23293,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A428" s="2" t="s">
         <v>1606</v>
       </c>
@@ -22170,7 +23322,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A429" s="3" t="s">
         <v>833</v>
       </c>
@@ -22197,7 +23349,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A430" s="3" t="s">
         <v>835</v>
       </c>
@@ -22224,7 +23376,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A431" s="3" t="s">
         <v>1592</v>
       </c>
@@ -22253,7 +23405,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A432" s="3" t="s">
         <v>1591</v>
       </c>
@@ -22282,7 +23434,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A433" s="3" t="s">
         <v>1607</v>
       </c>
@@ -22311,7 +23463,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A434" s="3" t="s">
         <v>1605</v>
       </c>
@@ -22340,7 +23492,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A435" s="3" t="s">
         <v>848</v>
       </c>
@@ -22369,7 +23521,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A436" s="3" t="s">
         <v>851</v>
       </c>
@@ -22398,7 +23550,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A437" s="3" t="s">
         <v>854</v>
       </c>
@@ -22427,7 +23579,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A438" s="3" t="s">
         <v>857</v>
       </c>
@@ -22456,7 +23608,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A439" s="3" t="s">
         <v>859</v>
       </c>
@@ -22485,7 +23637,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A440" s="3" t="s">
         <v>862</v>
       </c>
@@ -22514,7 +23666,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A441" s="3" t="s">
         <v>864</v>
       </c>
@@ -22543,7 +23695,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A442" s="3" t="s">
         <v>866</v>
       </c>
@@ -22572,7 +23724,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A443" s="3" t="s">
         <v>868</v>
       </c>
@@ -22601,7 +23753,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A444" s="3" t="s">
         <v>870</v>
       </c>
@@ -22630,7 +23782,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A445" s="2" t="s">
         <v>872</v>
       </c>
@@ -22659,7 +23811,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A446" s="2" t="s">
         <v>875</v>
       </c>
@@ -22688,7 +23840,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A447" s="2" t="s">
         <v>877</v>
       </c>
@@ -22717,7 +23869,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A448" s="2" t="s">
         <v>879</v>
       </c>
@@ -22746,7 +23898,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>881</v>
       </c>
@@ -22775,7 +23927,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A450" s="3" t="s">
         <v>884</v>
       </c>
@@ -22804,7 +23956,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A451" s="3" t="s">
         <v>887</v>
       </c>
@@ -22857,15 +24009,15 @@
       <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>1648</v>
       </c>
@@ -22879,7 +24031,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -22893,7 +24045,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -22907,7 +24059,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -22921,7 +24073,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -22935,7 +24087,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -22949,7 +24101,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -22963,7 +24115,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -22977,7 +24129,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -22991,7 +24143,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -23005,7 +24157,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -23019,7 +24171,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -23033,7 +24185,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -23047,7 +24199,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -23061,7 +24213,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -23075,7 +24227,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -23089,7 +24241,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -23103,7 +24255,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -23117,7 +24269,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -23131,7 +24283,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -23145,7 +24297,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -23159,7 +24311,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -23173,7 +24325,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -23193,19 +24345,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1e7d1cb27deb8d263e2d401018ecc8eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7905617efe2037a5881c093ccc8f66d" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
     <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <xsd:element name="properties">
@@ -23240,7 +24381,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -23259,7 +24400,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -23291,7 +24432,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -23362,8 +24503,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -23452,7 +24593,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -23461,19 +24602,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E9B29C-6002-4AC7-AFE2-C0F7588FC94E}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E668CE-3769-4FD0-A1B4-66F607075CC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -23491,10 +24632,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>